--- a/src/Seodonggook/예외처리.xlsx
+++ b/src/Seodonggook/예외처리.xlsx
@@ -46,44 +46,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JavaScript 코드에서 발생할 수 있는 에러에는 다양한 것들이 있습니다. 문법 에러와 같이 
-프로그래머의 실수로 인해 에러가 발생하는 경우도 있지만, 네트워크 에러와 같이 코드와는
-무관한 이유로 발생하는 에러도 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>console.log(foo); // ReferenceError: foo is not defined</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fetch('https://nonexistent-domain.nowhere'); // TypeError: Failed to fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드 실행 중에 에러가 발생하면, 코드의 실행이 중단되어 그 시점에 실행 중이었던 작업을 완료할 수 없게 됩니다. JavaScript는 이로부터 코드의 실행 흐름을 원상복구할 수 있는 기능을 제공하며, try...catch...finally 구문을 사용하면 에러가 나더라도 코드의 실행을 지속할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>try {
-  console.log('에러가 나기 직전까지의 코드는 잘 실행됩니다.');
-  new Array(-1); // RangeError: Invalid array length
-  console.log('에러가 난 이후의 코드는 실행되지 않습니다.');
-} catch (e) {
-  console.log('코드의 실행 흐름이 catch 블록으로 옮겨집니다.');
-  alert(`다음과 같은 에러가 발생했습니다: ${e.name}: ${e.message}`);
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>에러가 났을 때 원상복구를 시도할 코드를 try 블록 내부에 작성하면, 에러가 발생했을 때 코드의
 실행 흐름이 try 블록에서 catch 블록으로 옮겨갑니다. 이 때, catch 블록 안에서는 에러에 대한
 정보를 담고 있는 객체(위 코드의 e)를 사용할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>try 블록은 예외 처리를 위해서만 쓰이는 것은 아닙니다. try 블록 바로 뒤에 finally 블록이 오면,
-finally 블록에 있는 코드는 try 블록 안에서의 에러 발생 여부와 관계 없이 무조건 실행됩니다. 
-심지어 try 블록 내에서 return, break, continue 등으로 인해 코드의 실행 흐름이 즉시 이동될 때에도 마찬가지입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,13 +65,6 @@
     console.log(`현재 i의 값: ${i}`);
   }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finally 블록은 catch 블록과도 같이 사용됩니다. 이 때 코드의 실행 순서를 정리해 보면 다음과 같습니다.
-에러가 안 났을 때: try - finally
-에러가 났을 때: try - 에러 발생 - catch - finally
-아래 코드를 통해 코드의 실행 순서를 시험해보세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,13 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>앞에서 봤던 Promise 객체의 예외 처리 방식은, 일반적인 동기식 예외 처리 방식과
-다르게 콜백을 사용하고 있어서 코드를 복잡하게 만드는 원인이 됩니다.
-비동기 함수 내부에서는, rejected 상태가 된 Promise 객체를 동기식 예외 처리 방식과
-동일하게 try...catch...finally 구문으로 처리할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>async function func() {
   try {
     const res = await fetch('https://nonexistent-domain.nowhere');
@@ -284,6 +239,50 @@
     <t>JavaScript 엔진은 에러가 발생하는 순간 호출 스택을 되감는 과정을 거칩니다. 이 과정 중에 try 블록을 만나야 코드의
 실행 흐름을 원상복구시킬 수 있습니다. 위 예제에서 setTimeout에 넘겨진 콜백에서 에러가 발생하면, 
 호출 스택을 따라 올라가도 try 블록을 만나는 것이 아니므로, 코드의 실행 흐름이 catch 블록으로 옮겨지지 않는 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞에서 봤던 Promise 객체의 예외 처리 방식은, 일반적인 동기식 예외 처리 방식과
+다르게 콜백을 사용하고 있어서 코드를 복잡하게 만드는 원인이 됩니다.
+비동기 함수 내부에서는, rejected 상태가 된 Promise 객체를 동기식 예외 처리 방식과
+동일하게 try...catch...finally 구문으로 처리할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 코드에서 발생할 수 있는 에러에는 다양한 것들이 있습니다. 문법 에러와 같이 
+프로그래머의 실수로 인해 에러가 발생하는 경우도 있지만, 네트워크 에러와 같이 코드와는
+무관한 이유로 발생하는 에러도 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>console.log(foo); // ReferenceError: foo is not defined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetch('https://nonexistent-domain.nowhere'); // TypeError: Failed to fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try {
+  console.log('에러가 나기 직전까지의 코드는 잘 실행됩니다.');
+  new Array(-1); // RangeError: Invalid array length
+  console.log('에러가 난 이후의 코드는 실행되지 않습니다.');
+} catch (e) {
+  console.log('코드의 실행 흐름이 catch 블록으로 옮겨집니다.');
+  alert(`다음과 같은 에러가 발생했습니다: ${e.name}: ${e.message}`);
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try 블록은 예외 처리를 위해서만 쓰이는 것은 아닙니다. try 블록 바로 뒤에 finally 블록이 오면,
+finally 블록에 있는 코드는 try 블록 안에서의 에러 발생 여부와 관계 없이 무조건 실행됩니다. 
+심지어 try 블록 내에서 return, break, continue 등으로 인해 코드의 실행 흐름이 즉시 이동될 때에도 마찬가지입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finally 블록은 catch 블록과도 같이 사용됩니다. 이 때 코드의 실행 순서를 정리해 보면 다음과 같습니다.
+에러가 안 났을 때: try - finally
+에러가 났을 때: try - 에러 발생 - catch - finally</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:C74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,7 +698,7 @@
     </row>
     <row r="6" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
@@ -712,42 +711,42 @@
     </row>
     <row r="10" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="3:3" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="3:3" ht="132" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="148.5" x14ac:dyDescent="0.3">
       <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="66" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="21.75" x14ac:dyDescent="0.3">
@@ -757,122 +756,122 @@
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="3:3" ht="66" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="33" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="297" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="3:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="3:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="132" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="3:3" ht="231" x14ac:dyDescent="0.3">
       <c r="C56" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="C60" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="3:3" ht="33" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="3:3" ht="181.5" x14ac:dyDescent="0.3">
       <c r="C64" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="148.5" x14ac:dyDescent="0.3">
       <c r="C70" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="3:3" ht="33" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="148.5" x14ac:dyDescent="0.3">
       <c r="C74" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
